--- a/scripts/09_mosiacism_analysis/mut_from_mut_vs_wt_from_wt/GABA_P30_rrvgo_enrichr.xlsx
+++ b/scripts/09_mosiacism_analysis/mut_from_mut_vs_wt_from_wt/GABA_P30_rrvgo_enrichr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t xml:space="preserve">Gene Ontology</t>
   </si>
@@ -23,217 +23,304 @@
     <t xml:space="preserve">-log10.p-value</t>
   </si>
   <si>
+    <t xml:space="preserve">Biological Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein ubiquitination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA splicing, via transesterification reactions with bulged adenosine as nucleophile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cellular Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuclear body</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molecular Function</t>
   </si>
   <si>
+    <t xml:space="preserve">kinase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spliceosomal snRNP assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiquitin-dependent protein catabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRNA processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axonogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intracellular protein transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial inner membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translational termination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2 snRNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methylosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dendrite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cortical actin cytoskeleton</t>
+  </si>
+  <si>
     <t xml:space="preserve">RNA binding</t>
   </si>
   <si>
-    <t xml:space="preserve">Biological Process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of proteasomal ubiquitin-dependent protein catabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phosphorylation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ribosome biogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ncRNA processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of neurogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cellular Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWI/SNF complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein kinase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2-type catalytic step 2 spliceosome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chromosome organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-type ion transporter activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intra-Golgi vesicle-mediated transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA ligase (ATP) activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to interleukin-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disordered domain specific binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of transporter activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viral process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth hormone receptor binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of programmed cell death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein localization to chromosome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of neuron projection regeneration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lagging strand elongation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tau protein binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytoplasmic translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H4 histone acetyltransferase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of protein-containing complex assembly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to oxygen levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of ion transmembrane transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of heterotypic cell-cell adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of mitotic cell cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">respiratory electron transport chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">histone H4 acetylation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endoplasmic reticulum organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of response to endoplasmic reticulum stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nucleolus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inner mitochondrial membrane organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADP binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrial respiratory chain complex I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPII vesicle coat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytosolic ribosome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calcium channel regulator activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">microtubule organizing center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of synaptic transmission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guanosine-containing compound metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of cellular extravasation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubiquinone binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein phosphatase 2B binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of cell morphogenesis involved in differentiation</t>
+    <t xml:space="preserve">transcription-coupled nucleotide-excision repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromatin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell morphogenesis involved in differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA-templated transcription termination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">synaptic transmission, glutamatergic</t>
   </si>
   <si>
     <t xml:space="preserve">AMPA glutamate receptor complex</t>
   </si>
   <si>
-    <t xml:space="preserve">SUMO transferase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phosphoric diester hydrolase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lytic vacuole membrane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dynein complex binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to forskolin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to magnesium ion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of monooxygenase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apical dendrite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxidized DNA binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein disulfide isomerase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">receptor signaling pathway via STAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endoplasmic reticulum-Golgi intermediate compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to laminar fluid shear stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disulfide oxidoreductase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuclear androgen receptor binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heart process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuclear inclusion body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 iron, 4 sulfur cluster binding</t>
+    <t xml:space="preserve">post-translational protein modification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of G2/M transition of mitotic cell cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiquitin-protein transferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein stabilization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial respiratory chain complex assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial electron transport, NADH to ubiquinone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glutamate receptor activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of DNA repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of autophagosome assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cadherin binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">virion assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">septin ring organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NADH dehydrogenase (ubiquinone) activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stress-activated protein kinase signaling cascade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphatidylinositol biosynthetic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glutamate receptor signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial small ribosomal subunit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cellular amine metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of nervous system development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miRNA processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">centrosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of neurotransmitter receptor activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of vesicle-mediated transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potassium ion binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calcium ion transmembrane transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcription by RNA polymerase II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to UV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to reactive oxygen species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coated vesicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTPase regulator activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cellular ketone metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of neuron death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRNA cleavage and polyadenylation specificity factor complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SREBP signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vacuole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRNA polyadenylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voltage-gated calcium channel activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perinuclear region of cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cell-cell adhesion mediated by cadherin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular response to amino acid starvation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphatase binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axon extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epigenetic regulation of gene expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actin monomer binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neurotransmitter transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aggresome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein methyltransferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein lipoylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3'-5'-exoribonuclease activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphatidylinositol binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative chemotaxis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of microtubule-based process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcription coactivator activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purine ribonucleoside triphosphate binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of transcription by RNA polymerase I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ribosome binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adherens junction organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRNA methylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDZ domain binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">membrane protein intracellular domain proteolysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ephrin receptor binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-SMAD binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of hematopoietic stem cell differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of transcription from RNA polymerase II promoter in response to stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integral component of cytoplasmic side of endoplasmic reticulum membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aspartic endopeptidase activity, intramembrane cleaving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glucosyltransferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-mannosidase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translation initiation factor activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiquitin binding</t>
   </si>
   <si>
     <t xml:space="preserve">focal adhesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basal RNA polymerase II transcription machinery binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein heterodimerization activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insulin-like growth factor II binding</t>
   </si>
 </sst>
 </file>
@@ -584,73 +671,73 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>6.42575459629936</v>
+        <v>9.04969201243229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="n">
-        <v>5.9636658615912</v>
+        <v>7.31317543351773</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>5.26705032471159</v>
+        <v>6.50008106873335</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>5.19165750596796</v>
+        <v>6.28985584299811</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>5.16078893374076</v>
+        <v>6.22668278023033</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>4.07031970935968</v>
+        <v>6.16434030720291</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>4.05294001380504</v>
+        <v>6.11595400196423</v>
       </c>
     </row>
     <row r="9">
@@ -661,29 +748,29 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>3.98716726401882</v>
+        <v>5.574538743202</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>3.50047947941943</v>
+        <v>4.99523812133669</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>3.3210033850736</v>
+        <v>4.98846257635964</v>
       </c>
     </row>
     <row r="12">
@@ -694,18 +781,18 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>3.19336790144107</v>
+        <v>4.93188507520063</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>3.18155964951841</v>
+        <v>4.90218504761464</v>
       </c>
     </row>
     <row r="14">
@@ -716,51 +803,51 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>3.17587801380957</v>
+        <v>4.86269686117314</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>3.13819523432264</v>
+        <v>4.72488046801463</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>3.09878524761445</v>
+        <v>4.68202549444743</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>3.04181152515415</v>
+        <v>4.46165447173327</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>2.97046916302662</v>
+        <v>4.25604228515149</v>
       </c>
     </row>
     <row r="19">
@@ -771,73 +858,73 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>2.94363614960508</v>
+        <v>4.24576752121228</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>2.80829196781091</v>
+        <v>4.24275200334982</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>2.76611017709461</v>
+        <v>4.21289104051775</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>2.75029427188109</v>
+        <v>4.07574990534989</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>2.75029427188109</v>
+        <v>4.04623441428789</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>2.75029427188109</v>
+        <v>3.89520312462677</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>2.71734085029244</v>
+        <v>3.80823127901852</v>
       </c>
     </row>
     <row r="26">
@@ -848,128 +935,128 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>2.69993912542132</v>
+        <v>3.79819377237477</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>2.60352193018165</v>
+        <v>3.74156572044911</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>2.58496282453679</v>
+        <v>3.61936720887848</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>2.58496282453679</v>
+        <v>3.52599345673844</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>2.51091150790476</v>
+        <v>3.48829638076504</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>2.47313219279138</v>
+        <v>3.45915888572964</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>2.40914691474496</v>
+        <v>3.45179438148379</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>2.36456340056847</v>
+        <v>3.38450485037269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>2.31122247521352</v>
+        <v>3.29900631305818</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>2.26914625193862</v>
+        <v>3.28716018983571</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>2.21375201742059</v>
+        <v>3.28716018983571</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>2.20281496255351</v>
+        <v>3.28484971538579</v>
       </c>
     </row>
     <row r="38">
@@ -980,40 +1067,40 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>2.19749917479712</v>
+        <v>3.11371020645569</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>2.18809655976681</v>
+        <v>3.06373993874708</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>2.09572927286636</v>
+        <v>2.99343292136347</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>2.09028742305923</v>
+        <v>2.97678981856076</v>
       </c>
     </row>
     <row r="42">
@@ -1024,51 +1111,51 @@
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>2.00394298929463</v>
+        <v>2.95820777649349</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
         <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>1.97463869765671</v>
+        <v>2.86316271698835</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>1.94557724739649</v>
+        <v>2.83619162111522</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45" t="n">
-        <v>1.83584822449559</v>
+        <v>2.80724158464633</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>1.82463231974674</v>
+        <v>2.78683384660961</v>
       </c>
     </row>
     <row r="47">
@@ -1079,40 +1166,40 @@
         <v>51</v>
       </c>
       <c r="C47" t="n">
-        <v>1.82463231974674</v>
+        <v>2.76585185913404</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
       <c r="C48" t="n">
-        <v>1.82463231974674</v>
+        <v>2.73866302417701</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
       </c>
       <c r="C49" t="n">
-        <v>1.78574805060519</v>
+        <v>2.73643351120391</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
       </c>
       <c r="C50" t="n">
-        <v>1.69354357462296</v>
+        <v>2.71268373523917</v>
       </c>
     </row>
     <row r="51">
@@ -1123,7 +1210,7 @@
         <v>55</v>
       </c>
       <c r="C51" t="n">
-        <v>1.69354357462296</v>
+        <v>2.69729657964532</v>
       </c>
     </row>
     <row r="52">
@@ -1134,84 +1221,84 @@
         <v>56</v>
       </c>
       <c r="C52" t="n">
-        <v>1.64523333921256</v>
+        <v>2.62426965540981</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
         <v>57</v>
       </c>
       <c r="C53" t="n">
-        <v>1.63302324581988</v>
+        <v>2.61555163130153</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
         <v>58</v>
       </c>
       <c r="C54" t="n">
-        <v>1.62947942070122</v>
+        <v>2.58037013619139</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
         <v>59</v>
       </c>
       <c r="C55" t="n">
-        <v>1.57261412219021</v>
+        <v>2.5449290514455</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
       </c>
       <c r="C56" t="n">
-        <v>1.57261412219021</v>
+        <v>2.54372600454525</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
       </c>
       <c r="C57" t="n">
-        <v>1.57261412219021</v>
+        <v>2.52282959762058</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B58" t="s">
         <v>62</v>
       </c>
       <c r="C58" t="n">
-        <v>1.57261412219021</v>
+        <v>2.5217931142198</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
       </c>
       <c r="C59" t="n">
-        <v>1.57261412219021</v>
+        <v>2.46802492615246</v>
       </c>
     </row>
     <row r="60">
@@ -1222,40 +1309,40 @@
         <v>64</v>
       </c>
       <c r="C60" t="n">
-        <v>1.56944814808382</v>
+        <v>2.36901775723569</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
       </c>
       <c r="C61" t="n">
-        <v>1.45987246348105</v>
+        <v>2.34748925440324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
       </c>
       <c r="C62" t="n">
-        <v>1.4210715663955</v>
+        <v>2.30002094547689</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
       </c>
       <c r="C63" t="n">
-        <v>1.38549799882709</v>
+        <v>2.28340672987234</v>
       </c>
     </row>
     <row r="64">
@@ -1266,62 +1353,381 @@
         <v>68</v>
       </c>
       <c r="C64" t="n">
-        <v>1.3621429252215</v>
+        <v>2.15764293340428</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
       <c r="C65" t="n">
-        <v>1.30817863755742</v>
+        <v>2.13792393873166</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B66" t="s">
         <v>70</v>
       </c>
       <c r="C66" t="n">
-        <v>1.30777533285315</v>
+        <v>2.06970688200932</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
         <v>71</v>
       </c>
       <c r="C67" t="n">
-        <v>1.30777533285315</v>
+        <v>2.04107418915605</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
         <v>72</v>
       </c>
       <c r="C68" t="n">
-        <v>1.30777533285315</v>
+        <v>2.03928545654397</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B69" t="s">
         <v>73</v>
       </c>
       <c r="C69" t="n">
-        <v>1.30258681612021</v>
+        <v>1.99392470836622</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.98448576344813</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.98448576344813</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.94341601569836</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.93652726318197</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.93295053978657</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.9291458435299</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.9291458435299</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.89402243624557</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.85839106279516</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.85276542785499</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.78794552893473</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.75198062959414</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.73310443994461</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.70718869757228</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.6146262911541</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.60717694199424</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.60717694199424</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.60293967990725</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.55597361042565</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.53121322075234</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.53121322075234</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.53121322075234</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.53121322075234</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.51632503096064</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.37850358991294</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.36178949431288</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.3499608220211</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.33858274279329</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.33010943795161</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/09_mosiacism_analysis/mut_from_mut_vs_wt_from_wt/GABA_P30_rrvgo_enrichr.xlsx
+++ b/scripts/09_mosiacism_analysis/mut_from_mut_vs_wt_from_wt/GABA_P30_rrvgo_enrichr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t xml:space="preserve">Gene Ontology</t>
   </si>
@@ -29,298 +29,301 @@
     <t xml:space="preserve">protein ubiquitination</t>
   </si>
   <si>
+    <t xml:space="preserve">Molecular Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinase activity</t>
+  </si>
+  <si>
     <t xml:space="preserve">RNA splicing, via transesterification reactions with bulged adenosine as nucleophile</t>
   </si>
   <si>
+    <t xml:space="preserve">mRNA processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiquitin-dependent protein catabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stress-activated protein kinase signaling cascade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axonogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of canonical Wnt signaling pathway</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cellular Component</t>
   </si>
   <si>
     <t xml:space="preserve">nuclear body</t>
   </si>
   <si>
-    <t xml:space="preserve">Molecular Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kinase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spliceosomal snRNP assembly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubiquitin-dependent protein catabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mRNA processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">axonogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intracellular protein transport</t>
+    <t xml:space="preserve">translational termination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of DNA repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein phosphorylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA-templated transcription termination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of cellular component organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">centrosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of glutamate receptor signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein stabilization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein targeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of neurotransmitter receptor activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA polymerase II, holoenzyme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calcium ion transmembrane transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cellular localization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiquitin-like protein ligase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dendrite</t>
   </si>
   <si>
     <t xml:space="preserve">mitochondrial inner membrane</t>
   </si>
   <si>
-    <t xml:space="preserve">translational termination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2 snRNP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrial translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methylosome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dendrite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cortical actin cytoskeleton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA binding</t>
+    <t xml:space="preserve">snRNA transcription by RNA polymerase II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cadherin binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purine ribonucleoside triphosphate binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">septin ring organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voltage-gated calcium channel activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of neuron death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRNA polyadenylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial small ribosomal subunit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromatin</t>
   </si>
   <si>
     <t xml:space="preserve">transcription-coupled nucleotide-excision repair</t>
   </si>
   <si>
-    <t xml:space="preserve">chromatin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell morphogenesis involved in differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA-templated transcription termination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synaptic transmission, glutamatergic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMPA glutamate receptor complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">post-translational protein modification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of G2/M transition of mitotic cell cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubiquitin-protein transferase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein stabilization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrial respiratory chain complex assembly</t>
+    <t xml:space="preserve">3'-5' exonuclease activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">establishment or maintenance of apical/basal cell polarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcription coactivator activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ionotropic glutamate receptor complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of actin cytoskeleton organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ribosomal large subunit biogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of histone modification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ephrin receptor binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTPase binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of protein metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of nervous system development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4/U6 x U5 tri-snRNP complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entrainment of circadian clock by photoperiod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response to reactive oxygen species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphatidylinositol binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of mitochondrion organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peptidyl-threonine phosphorylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate adhesion-dependent cell spreading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perinuclear region of cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal ion binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axon extension involved in axon guidance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of glucose import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sulfurtransferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRNA cleavage and polyadenylation specificity factor complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cellular amino acid metabolic process</t>
   </si>
   <si>
     <t xml:space="preserve">mitochondrial electron transport, NADH to ubiquinone</t>
   </si>
   <si>
-    <t xml:space="preserve">glutamate receptor activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of DNA repair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of autophagosome assembly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cadherin binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">virion assembly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">septin ring organization</t>
+    <t xml:space="preserve">viral budding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insulin-like growth factor I binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">receptor localization to synapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of autophagy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cellular ketone metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actin monomer binding</t>
   </si>
   <si>
     <t xml:space="preserve">NADH dehydrogenase (ubiquinone) activity</t>
   </si>
   <si>
-    <t xml:space="preserve">stress-activated protein kinase signaling cascade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phosphatidylinositol biosynthetic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glutamate receptor signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrial small ribosomal subunit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cellular amine metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of nervous system development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miRNA processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">centrosome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of neurotransmitter receptor activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of vesicle-mediated transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">potassium ion binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calcium ion transmembrane transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcription by RNA polymerase II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to UV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to reactive oxygen species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coated vesicle</t>
+    <t xml:space="preserve">positive regulation of circadian rhythm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of focal adhesion assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative chemotaxis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of microtubule-based process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ribosome binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of wound healing, spreading of epidermal cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integral component of cytoplasmic side of endoplasmic reticulum membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y-form DNA binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aspartic endopeptidase activity, intramembrane cleaving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-mannosidase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA insertion or deletion binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glucosyltransferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of defense response to virus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epigenetic regulation of gene expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lysosome localization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disordered domain specific binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyubiquitin modification-dependent protein binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-acylglycerol-3-phosphate O-acyltransferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein heterodimerization activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translation elongation factor activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nucleotide-binding domain, leucine rich repeat containing receptor signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">central nervous system myelination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein-arginine omega-N asymmetric methyltransferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">histone H3-methyl-lysine-4 demethylase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-SMAD binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homotypic cell-cell adhesion</t>
   </si>
   <si>
     <t xml:space="preserve">GTPase regulator activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cellular ketone metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of neuron death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mRNA cleavage and polyadenylation specificity factor complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SREBP signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vacuole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mRNA polyadenylation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voltage-gated calcium channel activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perinuclear region of cytoplasm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell-cell adhesion mediated by cadherin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to amino acid starvation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phosphatase binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">axon extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epigenetic regulation of gene expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actin monomer binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neurotransmitter transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aggresome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein methyltransferase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein lipoylation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3'-5'-exoribonuclease activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phosphatidylinositol binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative chemotaxis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of microtubule-based process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcription coactivator activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purine ribonucleoside triphosphate binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of transcription by RNA polymerase I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ribosome binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adherens junction organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mRNA methylation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDZ domain binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">membrane protein intracellular domain proteolysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ephrin receptor binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-SMAD binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of hematopoietic stem cell differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of transcription from RNA polymerase II promoter in response to stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integral component of cytoplasmic side of endoplasmic reticulum membrane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aspartic endopeptidase activity, intramembrane cleaving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glucosyltransferase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha-mannosidase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translation initiation factor activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubiquitin binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">focal adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basal RNA polymerase II transcription machinery binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein heterodimerization activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insulin-like growth factor II binding</t>
   </si>
 </sst>
 </file>
@@ -671,40 +674,40 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>9.04969201243229</v>
+        <v>8.51194387369885</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>7.31317543351773</v>
+        <v>7.16967887432659</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>6.50008106873335</v>
+        <v>7.16072356626208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" t="n">
-        <v>6.28985584299811</v>
+        <v>6.99481731542926</v>
       </c>
     </row>
     <row r="6">
@@ -712,10 +715,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>6.22668278023033</v>
+        <v>6.03929643341682</v>
       </c>
     </row>
     <row r="7">
@@ -723,10 +726,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>6.16434030720291</v>
+        <v>5.0183507605236</v>
       </c>
     </row>
     <row r="8">
@@ -734,10 +737,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>6.11595400196423</v>
+        <v>4.56936597988299</v>
       </c>
     </row>
     <row r="9">
@@ -745,32 +748,32 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>5.574538743202</v>
+        <v>4.39993088696343</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>4.99523812133669</v>
+        <v>4.18403013809352</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>4.98846257635964</v>
+        <v>4.18206572906108</v>
       </c>
     </row>
     <row r="12">
@@ -781,18 +784,18 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>4.93188507520063</v>
+        <v>4.10696512578011</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>4.90218504761464</v>
+        <v>4.09655037143509</v>
       </c>
     </row>
     <row r="14">
@@ -803,51 +806,51 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>4.86269686117314</v>
+        <v>3.8881486536283</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>4.72488046801463</v>
+        <v>3.81896873607659</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>4.68202549444743</v>
+        <v>3.51916666116371</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>4.46165447173327</v>
+        <v>3.47229178334315</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>4.25604228515149</v>
+        <v>3.46877449759157</v>
       </c>
     </row>
     <row r="19">
@@ -858,18 +861,18 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>4.24576752121228</v>
+        <v>3.46284304880783</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>4.24275200334982</v>
+        <v>3.42953590075543</v>
       </c>
     </row>
     <row r="21">
@@ -880,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>4.21289104051775</v>
+        <v>3.38846899681271</v>
       </c>
     </row>
     <row r="22">
@@ -891,29 +894,29 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>4.07574990534989</v>
+        <v>3.33105615067901</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>4.04623441428789</v>
+        <v>3.29653187015336</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>3.89520312462677</v>
+        <v>3.14796992865159</v>
       </c>
     </row>
     <row r="25">
@@ -924,40 +927,40 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>3.80823127901852</v>
+        <v>3.11420840014796</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>3.79819377237477</v>
+        <v>3.10655848901992</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>3.74156572044911</v>
+        <v>3.06885339918436</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>3.61936720887848</v>
+        <v>3.00727296363335</v>
       </c>
     </row>
     <row r="29">
@@ -968,29 +971,29 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>3.52599345673844</v>
+        <v>2.98330550570898</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>3.48829638076504</v>
+        <v>2.94951084128642</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>3.45915888572964</v>
+        <v>2.94534058234064</v>
       </c>
     </row>
     <row r="32">
@@ -1001,29 +1004,29 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>3.45179438148379</v>
+        <v>2.90250750217042</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>3.38450485037269</v>
+        <v>2.86259583196689</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>3.29900631305818</v>
+        <v>2.83814569668733</v>
       </c>
     </row>
     <row r="35">
@@ -1034,40 +1037,40 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>3.28716018983571</v>
+        <v>2.81719445259955</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>3.28716018983571</v>
+        <v>2.81719445259955</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>3.28484971538579</v>
+        <v>2.79247175943788</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>3.11371020645569</v>
+        <v>2.78100457641212</v>
       </c>
     </row>
     <row r="39">
@@ -1078,51 +1081,51 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>3.06373993874708</v>
+        <v>2.76830373852985</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>2.99343292136347</v>
+        <v>2.75823705236897</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>2.97678981856076</v>
+        <v>2.73089970886172</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>2.95820777649349</v>
+        <v>2.703951248423</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
         <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>2.86316271698835</v>
+        <v>2.65834054642269</v>
       </c>
     </row>
     <row r="44">
@@ -1133,18 +1136,18 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>2.83619162111522</v>
+        <v>2.63380851306153</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
       </c>
       <c r="C45" t="n">
-        <v>2.80724158464633</v>
+        <v>2.60695720004841</v>
       </c>
     </row>
     <row r="46">
@@ -1155,29 +1158,29 @@
         <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>2.78683384660961</v>
+        <v>2.57398030841709</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
       </c>
       <c r="C47" t="n">
-        <v>2.76585185913404</v>
+        <v>2.57351234222361</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
       <c r="C48" t="n">
-        <v>2.73866302417701</v>
+        <v>2.56904814704755</v>
       </c>
     </row>
     <row r="49">
@@ -1188,7 +1191,7 @@
         <v>53</v>
       </c>
       <c r="C49" t="n">
-        <v>2.73643351120391</v>
+        <v>2.53211699747034</v>
       </c>
     </row>
     <row r="50">
@@ -1199,18 +1202,18 @@
         <v>54</v>
       </c>
       <c r="C50" t="n">
-        <v>2.71268373523917</v>
+        <v>2.52708952012289</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
       </c>
       <c r="C51" t="n">
-        <v>2.69729657964532</v>
+        <v>2.43239059272556</v>
       </c>
     </row>
     <row r="52">
@@ -1221,29 +1224,29 @@
         <v>56</v>
       </c>
       <c r="C52" t="n">
-        <v>2.62426965540981</v>
+        <v>2.42852206756572</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B53" t="s">
         <v>57</v>
       </c>
       <c r="C53" t="n">
-        <v>2.61555163130153</v>
+        <v>2.38372210788626</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
         <v>58</v>
       </c>
       <c r="C54" t="n">
-        <v>2.58037013619139</v>
+        <v>2.31974162030598</v>
       </c>
     </row>
     <row r="55">
@@ -1254,7 +1257,7 @@
         <v>59</v>
       </c>
       <c r="C55" t="n">
-        <v>2.5449290514455</v>
+        <v>2.29372683033432</v>
       </c>
     </row>
     <row r="56">
@@ -1265,40 +1268,40 @@
         <v>60</v>
       </c>
       <c r="C56" t="n">
-        <v>2.54372600454525</v>
+        <v>2.27071542228793</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
       </c>
       <c r="C57" t="n">
-        <v>2.52282959762058</v>
+        <v>2.25605423193554</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
         <v>62</v>
       </c>
       <c r="C58" t="n">
-        <v>2.5217931142198</v>
+        <v>2.21216198399165</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
       </c>
       <c r="C59" t="n">
-        <v>2.46802492615246</v>
+        <v>2.19204051890233</v>
       </c>
     </row>
     <row r="60">
@@ -1309,40 +1312,40 @@
         <v>64</v>
       </c>
       <c r="C60" t="n">
-        <v>2.36901775723569</v>
+        <v>2.17510810897549</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
       </c>
       <c r="C61" t="n">
-        <v>2.34748925440324</v>
+        <v>2.17510810897549</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
       </c>
       <c r="C62" t="n">
-        <v>2.30002094547689</v>
+        <v>2.17510810897549</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
       </c>
       <c r="C63" t="n">
-        <v>2.28340672987234</v>
+        <v>2.16314513746574</v>
       </c>
     </row>
     <row r="64">
@@ -1353,18 +1356,18 @@
         <v>68</v>
       </c>
       <c r="C64" t="n">
-        <v>2.15764293340428</v>
+        <v>2.14708393851004</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
       <c r="C65" t="n">
-        <v>2.13792393873166</v>
+        <v>2.06402189381636</v>
       </c>
     </row>
     <row r="66">
@@ -1375,29 +1378,29 @@
         <v>70</v>
       </c>
       <c r="C66" t="n">
-        <v>2.06970688200932</v>
+        <v>2.05423281583752</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
         <v>71</v>
       </c>
       <c r="C67" t="n">
-        <v>2.04107418915605</v>
+        <v>2.04519933793629</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B68" t="s">
         <v>72</v>
       </c>
       <c r="C68" t="n">
-        <v>2.03928545654397</v>
+        <v>2.02809948990323</v>
       </c>
     </row>
     <row r="69">
@@ -1408,62 +1411,62 @@
         <v>73</v>
       </c>
       <c r="C69" t="n">
-        <v>1.99392470836622</v>
+        <v>1.94328166379823</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B70" t="s">
         <v>74</v>
       </c>
       <c r="C70" t="n">
-        <v>1.98448576344813</v>
+        <v>1.91067665674738</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
       </c>
       <c r="C71" t="n">
-        <v>1.98448576344813</v>
+        <v>1.84515752129369</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
         <v>76</v>
       </c>
       <c r="C72" t="n">
-        <v>1.94341601569836</v>
+        <v>1.83522035208657</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B73" t="s">
         <v>77</v>
       </c>
       <c r="C73" t="n">
-        <v>1.93652726318197</v>
+        <v>1.77499703767548</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B74" t="s">
         <v>78</v>
       </c>
       <c r="C74" t="n">
-        <v>1.93295053978657</v>
+        <v>1.76627543230386</v>
       </c>
     </row>
     <row r="75">
@@ -1474,7 +1477,7 @@
         <v>79</v>
       </c>
       <c r="C75" t="n">
-        <v>1.9291458435299</v>
+        <v>1.75046808593809</v>
       </c>
     </row>
     <row r="76">
@@ -1485,117 +1488,117 @@
         <v>80</v>
       </c>
       <c r="C76" t="n">
-        <v>1.9291458435299</v>
+        <v>1.75046808593809</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
         <v>81</v>
       </c>
       <c r="C77" t="n">
-        <v>1.89402243624557</v>
+        <v>1.74850922220288</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B78" t="s">
         <v>82</v>
       </c>
       <c r="C78" t="n">
-        <v>1.85839106279516</v>
+        <v>1.70627794968363</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
         <v>83</v>
       </c>
       <c r="C79" t="n">
-        <v>1.85276542785499</v>
+        <v>1.70627794968363</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
         <v>84</v>
       </c>
       <c r="C80" t="n">
-        <v>1.78794552893473</v>
+        <v>1.70627794968363</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B81" t="s">
         <v>85</v>
       </c>
       <c r="C81" t="n">
-        <v>1.75198062959414</v>
+        <v>1.70627794968363</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
         <v>86</v>
       </c>
       <c r="C82" t="n">
-        <v>1.73310443994461</v>
+        <v>1.70627794968363</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
       </c>
       <c r="C83" t="n">
-        <v>1.70718869757228</v>
+        <v>1.70627794968363</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
         <v>88</v>
       </c>
       <c r="C84" t="n">
-        <v>1.6146262911541</v>
+        <v>1.70627794968363</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B85" t="s">
         <v>89</v>
       </c>
       <c r="C85" t="n">
-        <v>1.60717694199424</v>
+        <v>1.61694514012629</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B86" t="s">
         <v>90</v>
       </c>
       <c r="C86" t="n">
-        <v>1.60717694199424</v>
+        <v>1.58368562569733</v>
       </c>
     </row>
     <row r="87">
@@ -1606,128 +1609,139 @@
         <v>91</v>
       </c>
       <c r="C87" t="n">
-        <v>1.60293967990725</v>
+        <v>1.4992025765868</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
         <v>92</v>
       </c>
       <c r="C88" t="n">
-        <v>1.55597361042565</v>
+        <v>1.49617329520435</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
         <v>93</v>
       </c>
       <c r="C89" t="n">
-        <v>1.53121322075234</v>
+        <v>1.42136907123698</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
         <v>94</v>
       </c>
       <c r="C90" t="n">
-        <v>1.53121322075234</v>
+        <v>1.42011327261804</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
         <v>95</v>
       </c>
       <c r="C91" t="n">
-        <v>1.53121322075234</v>
+        <v>1.36201074730983</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
         <v>96</v>
       </c>
       <c r="C92" t="n">
-        <v>1.53121322075234</v>
+        <v>1.35709738150548</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B93" t="s">
         <v>97</v>
       </c>
       <c r="C93" t="n">
-        <v>1.51632503096064</v>
+        <v>1.33259853295526</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B94" t="s">
         <v>98</v>
       </c>
       <c r="C94" t="n">
-        <v>1.37850358991294</v>
+        <v>1.33093207754583</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
         <v>99</v>
       </c>
       <c r="C95" t="n">
-        <v>1.36178949431288</v>
+        <v>1.33093207754583</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
         <v>100</v>
       </c>
       <c r="C96" t="n">
-        <v>1.3499608220211</v>
+        <v>1.33093207754583</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
         <v>101</v>
       </c>
       <c r="C97" t="n">
-        <v>1.33858274279329</v>
+        <v>1.32669312364314</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B98" t="s">
         <v>102</v>
       </c>
       <c r="C98" t="n">
-        <v>1.33010943795161</v>
+        <v>1.32448084122837</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.32221355701502</v>
       </c>
     </row>
   </sheetData>
